--- a/tecnicos.xlsx
+++ b/tecnicos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\localizador_tecnicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos\localizador_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C0DE37-A1E6-4210-B11C-90CB34B3A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCE14C9-0351-4753-88FB-EB1B53725882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$J$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$J$98</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="243">
   <si>
     <t>tecnico</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Jefferson Oliveira Maciel</t>
   </si>
   <si>
-    <t>Samuel Medeiros de Oliveira</t>
-  </si>
-  <si>
-    <t>Rafael Henrique Moura Carvalho</t>
-  </si>
-  <si>
     <t>Brasília</t>
   </si>
   <si>
@@ -105,24 +99,12 @@
     <t>George Alberto Alvarez Barbosa</t>
   </si>
   <si>
-    <t>Maringá</t>
-  </si>
-  <si>
     <t>Peterson Carmo da Silva</t>
   </si>
   <si>
-    <t>César Luiz de Souza Dias</t>
-  </si>
-  <si>
     <t>Recife</t>
   </si>
   <si>
-    <t>Rodrigo Dias Albuquerque</t>
-  </si>
-  <si>
-    <t>Ribeirão Preto</t>
-  </si>
-  <si>
     <t>Marcos Antonio Zocarato Filho</t>
   </si>
   <si>
@@ -144,36 +126,21 @@
     <t>Santos</t>
   </si>
   <si>
-    <t>Jose Antônio Gonzalez</t>
-  </si>
-  <si>
-    <t>São Luís (MA)</t>
-  </si>
-  <si>
     <t>Michael da Silva Ribeiro</t>
   </si>
   <si>
     <t>Willian Vieira da Silva</t>
   </si>
   <si>
-    <t>Rodrigo Alessandro Gomes</t>
-  </si>
-  <si>
     <t>Marcio Gonçalves Lacerda</t>
   </si>
   <si>
-    <t>Harold Enrique Mazuera Otero</t>
-  </si>
-  <si>
     <t>Edvando Robson Vieira da Silva</t>
   </si>
   <si>
     <t>Denis Luiz Ambrosio</t>
   </si>
   <si>
-    <t>Abner Venâncio de Meneze</t>
-  </si>
-  <si>
     <t>N/I</t>
   </si>
   <si>
@@ -183,9 +150,6 @@
     <t>email_coordenador</t>
   </si>
   <si>
-    <t>Edmilsn.carvalho@globalhitss.com.br</t>
-  </si>
-  <si>
     <t>uf</t>
   </si>
   <si>
@@ -438,9 +402,6 @@
     <t>PR - Curitiba - Rua Jaime Reis , 495  3º Andar - São Francisco - Curitiba, PR CEP 80510-010 - 3º andar</t>
   </si>
   <si>
-    <t>CE - Fortaleza - Av. Pontes Vieira, 1554 - São João do Tauapé - Fortaleza - CE - 2º andar - Sala de TI</t>
-  </si>
-  <si>
     <t>GO - Goiânia - Rua 2 n° 339, setor central , prédio claro , Goiânia-GO, CEP: 74013-020 - 4º andar - Sala de TI</t>
   </si>
   <si>
@@ -510,159 +471,6 @@
     <t>30160-032</t>
   </si>
   <si>
-    <t>30160-033</t>
-  </si>
-  <si>
-    <t>30160-034</t>
-  </si>
-  <si>
-    <t>30160-035</t>
-  </si>
-  <si>
-    <t>30160-036</t>
-  </si>
-  <si>
-    <t>30160-037</t>
-  </si>
-  <si>
-    <t>30160-038</t>
-  </si>
-  <si>
-    <t>30160-039</t>
-  </si>
-  <si>
-    <t>30160-040</t>
-  </si>
-  <si>
-    <t>30160-041</t>
-  </si>
-  <si>
-    <t>30160-042</t>
-  </si>
-  <si>
-    <t>30160-043</t>
-  </si>
-  <si>
-    <t>30160-044</t>
-  </si>
-  <si>
-    <t>30160-045</t>
-  </si>
-  <si>
-    <t>30160-046</t>
-  </si>
-  <si>
-    <t>30160-047</t>
-  </si>
-  <si>
-    <t>30160-048</t>
-  </si>
-  <si>
-    <t>30160-049</t>
-  </si>
-  <si>
-    <t>30160-050</t>
-  </si>
-  <si>
-    <t>30160-051</t>
-  </si>
-  <si>
-    <t>30160-052</t>
-  </si>
-  <si>
-    <t>30160-053</t>
-  </si>
-  <si>
-    <t>30160-054</t>
-  </si>
-  <si>
-    <t>30160-055</t>
-  </si>
-  <si>
-    <t>30160-056</t>
-  </si>
-  <si>
-    <t>30160-057</t>
-  </si>
-  <si>
-    <t>30160-058</t>
-  </si>
-  <si>
-    <t>30160-059</t>
-  </si>
-  <si>
-    <t>30160-060</t>
-  </si>
-  <si>
-    <t>30160-061</t>
-  </si>
-  <si>
-    <t>30160-062</t>
-  </si>
-  <si>
-    <t>30160-063</t>
-  </si>
-  <si>
-    <t>30160-064</t>
-  </si>
-  <si>
-    <t>30160-065</t>
-  </si>
-  <si>
-    <t>30160-066</t>
-  </si>
-  <si>
-    <t>30160-067</t>
-  </si>
-  <si>
-    <t>30160-068</t>
-  </si>
-  <si>
-    <t>30160-069</t>
-  </si>
-  <si>
-    <t>30160-070</t>
-  </si>
-  <si>
-    <t>30160-071</t>
-  </si>
-  <si>
-    <t>30160-072</t>
-  </si>
-  <si>
-    <t>30160-073</t>
-  </si>
-  <si>
-    <t>30160-074</t>
-  </si>
-  <si>
-    <t>30160-075</t>
-  </si>
-  <si>
-    <t>30160-076</t>
-  </si>
-  <si>
-    <t>30160-077</t>
-  </si>
-  <si>
-    <t>30160-078</t>
-  </si>
-  <si>
-    <t>30160-079</t>
-  </si>
-  <si>
-    <t>30160-080</t>
-  </si>
-  <si>
-    <t>30160-081</t>
-  </si>
-  <si>
-    <t>30160-082</t>
-  </si>
-  <si>
-    <t>30160-083</t>
-  </si>
-  <si>
     <t>jean.moura@globalhitss.com.br</t>
   </si>
   <si>
@@ -684,9 +492,6 @@
     <t xml:space="preserve">Curitiba  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fortaleza  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Goiânia  </t>
   </si>
   <si>
@@ -718,36 +523,250 @@
   </si>
   <si>
     <t xml:space="preserve">Vitória  </t>
+  </si>
+  <si>
+    <t>70328-901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13478-820 </t>
+  </si>
+  <si>
+    <t>13010-151</t>
+  </si>
+  <si>
+    <t>13034-685</t>
+  </si>
+  <si>
+    <t>90850-300</t>
+  </si>
+  <si>
+    <t>52020-900</t>
+  </si>
+  <si>
+    <t>20221-410</t>
+  </si>
+  <si>
+    <t>13063-001 -</t>
+  </si>
+  <si>
+    <t>80510-010</t>
+  </si>
+  <si>
+    <t>57051-500</t>
+  </si>
+  <si>
+    <t>74013-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59020-120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14095-280 </t>
+  </si>
+  <si>
+    <t>04709-110</t>
+  </si>
+  <si>
+    <t>01329-000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04719-002 </t>
+  </si>
+  <si>
+    <t>29010-002</t>
+  </si>
+  <si>
+    <t>20071-910</t>
+  </si>
+  <si>
+    <t>41830-492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09040-210 </t>
+  </si>
+  <si>
+    <t>03320-001</t>
+  </si>
+  <si>
+    <t>40040-240 -</t>
+  </si>
+  <si>
+    <t>20080-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv Barão de Mamoré, 56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua apucarana 85 </t>
+  </si>
+  <si>
+    <t>Rua Jornalista Jorge Baptista, 372, - Juliana - Belo Horizonte- Minas Gerais</t>
+  </si>
+  <si>
+    <t>Ar 11 Conjunto 04 Casa 08</t>
+  </si>
+  <si>
+    <t>Rua Bernardino de Campos, 799</t>
+  </si>
+  <si>
+    <t>Rua Rio Grande do Norte 272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua 8H, 201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Guaraná, 63 Bairro Santa Etelvina </t>
+  </si>
+  <si>
+    <t>Rua Hideo Kussumoto 571 A , Parque das Cerejeiras, Sarandi-PR</t>
+  </si>
+  <si>
+    <t>RUA DIÁCONO OTACÍLIO SECO, 386 - JARDIM MARIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Francisco  David, 199 , Vila Guilhermina </t>
+  </si>
+  <si>
+    <t>Rua Dias Filho 37</t>
+  </si>
+  <si>
+    <t>Rua cento e oito, 375, Jardim Paulista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua José Barense N1155 </t>
+  </si>
+  <si>
+    <t>Rua Senador Pompeu, 119</t>
+  </si>
+  <si>
+    <t>Rua São Tiago 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Cardeal Avelar Brandão Vilella 23788-Mata Escura </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R. Prof. Romeu La Scala - Radio Clube, Santos - SP, 11088-390</t>
+  </si>
+  <si>
+    <t>Avenida Jose Lucas Teixeira, 864, JD. Leonor ll</t>
+  </si>
+  <si>
+    <t>Rua São Jerônimo,  Cruzeiro de Santa Barbara</t>
+  </si>
+  <si>
+    <t>Avenida Amador Bueno da Veiga, 922</t>
+  </si>
+  <si>
+    <t>Rafael Henrique Moura Carvalho Pereira</t>
+  </si>
+  <si>
+    <t>Samuel Medeiros de Oliveira Santos</t>
+  </si>
+  <si>
+    <t>Thiago Henrique Fernandes</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Maringa</t>
+  </si>
+  <si>
+    <t>Wellington da Costa Neves</t>
+  </si>
+  <si>
+    <t>Fabiano de Oliveira Felix</t>
+  </si>
+  <si>
+    <t>Montes Claros</t>
+  </si>
+  <si>
+    <t>Cesar Luiz de Souza Dias</t>
+  </si>
+  <si>
+    <t>Rodrigo Dias de Albuquerque</t>
+  </si>
+  <si>
+    <t>Ribeirao Preto</t>
+  </si>
+  <si>
+    <t>Claudionor Pereira dos Santos</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Cledemilson Santos da Silva</t>
+  </si>
+  <si>
+    <t>Jose Antônio Gonzalez Rodriguez</t>
+  </si>
+  <si>
+    <t>Breno Ricardo Fernandes</t>
+  </si>
+  <si>
+    <t>São Jose do Rio Preto</t>
+  </si>
+  <si>
+    <t>São Luís</t>
+  </si>
+  <si>
+    <t>Abner Venâncio de Menezes</t>
+  </si>
+  <si>
+    <t>Ademir Francisquini</t>
+  </si>
+  <si>
+    <t>Alex Fernando Pastor</t>
+  </si>
+  <si>
+    <t>Alfeu Pereira</t>
+  </si>
+  <si>
+    <t>Gabriel Gomes do Nascimento</t>
+  </si>
+  <si>
+    <t>Harold Enrique Mazuera Otero Junior</t>
+  </si>
+  <si>
+    <t>Ivan Miguel Garcia</t>
+  </si>
+  <si>
+    <t>João Paulo Giannocoro Blanco</t>
+  </si>
+  <si>
+    <t>Rodrigo Alessandro Gomes dos Santos de Oliveira</t>
+  </si>
+  <si>
+    <t>rafael.aloia@globalhitss.com.br</t>
+  </si>
+  <si>
+    <t>Rua Senador  Jaguaribe</t>
+  </si>
+  <si>
+    <t>20950-100</t>
+  </si>
+  <si>
+    <t>Edmilson</t>
+  </si>
+  <si>
+    <t>Luiz Bitu Bezerra Neto jovi</t>
+  </si>
+  <si>
+    <t>Av. Pontes Vieira - Dionísio Torres, Fortaleza - CE</t>
+  </si>
+  <si>
+    <t>60135-237</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF9BC13C"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,25 +784,46 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF003646"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -793,14 +833,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -830,41 +870,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3799,2755 +3839,3173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="107.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="4"/>
-    <col min="10" max="10" width="31.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.88671875" style="4"/>
+    <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="107.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1"/>
+    <col min="10" max="10" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1.4552</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-48.471600000000002</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2">
+        <f>--22.8075</f>
+        <v>22.807500000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <f>--43.0612</f>
+        <v>43.061199999999999</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-19.8078</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-43.938099999999999</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-15.8239</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-47.962000000000003</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-22.9039</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-47.0625</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-22.9039</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-47.0625</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-22.9039</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-47.0625</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-25.9421</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-49.384399999999999</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3.8304999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-38.543799999999997</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-2.9887999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-59.999400000000001</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-23.448799999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-51.887</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-23.3431</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-52.084699999999998</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-16.736699999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-43.8675</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-30.026199999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-51.132100000000001</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-7.9519000000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-34.896999999999998</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-21.213999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-47.766399999999997</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-22.901800000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-43.190199999999997</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-22.901800000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-43.190199999999997</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-22.901800000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-43.190199999999997</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-22.901800000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-43.190199999999997</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-9.3460000000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-38.258099999999999</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-12.983700000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-38.455399999999997</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-23.9512</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-46.331299999999999</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-20.801200000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-49.225900000000003</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="6">
-        <v>-1.4558</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-48.503900000000002</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="D26" s="2">
+        <v>-2.5996000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-44.208100000000002</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="6">
-        <v>-19.928100000000001</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-43.941899999999997</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-19.928100000000001</v>
-      </c>
-      <c r="E4" s="6">
-        <v>-43.941899999999997</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="6">
-        <v>-15.793900000000001</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-47.882800000000003</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="6">
-        <v>-22.9009</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-47.057299999999998</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="6">
-        <v>-22.9009</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-47.057299999999998</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-25.4297</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-49.271900000000002</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6">
-        <v>-3.1189</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-60.021700000000003</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6">
-        <v>-23.425000000000001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>-51.938899999999997</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-30.032800000000002</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-51.23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-8.0539000000000005</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-34.880800000000001</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="6">
-        <v>-21.177600000000002</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-47.810099999999998</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="6">
-        <v>-22.911100000000001</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-43.205599999999997</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-22.911100000000001</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-43.205599999999997</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="6">
-        <v>-22.911100000000001</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-43.205599999999997</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6">
-        <v>-22.911100000000001</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-43.205599999999997</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6">
-        <v>-23.960799999999999</v>
-      </c>
-      <c r="E18" s="6">
-        <v>-46.3339</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="6">
-        <v>-2.5299999999999998</v>
-      </c>
-      <c r="E19" s="6">
-        <v>-44.302799999999998</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="6">
-        <v>-23.5504</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-46.633899999999997</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="6">
-        <v>-23.5504</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-46.633899999999997</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="6">
-        <v>-23.5504</v>
-      </c>
-      <c r="E22" s="6">
-        <v>-46.633899999999997</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="6">
-        <v>-23.5504</v>
-      </c>
-      <c r="E23" s="6">
-        <v>-46.633899999999997</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="6">
-        <v>-23.5504</v>
-      </c>
-      <c r="E24" s="6">
-        <v>-46.633899999999997</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="6">
-        <v>-23.5504</v>
-      </c>
-      <c r="E25" s="6">
-        <v>-46.633899999999997</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="6">
-        <v>-23.5504</v>
-      </c>
-      <c r="E26" s="6">
-        <v>-46.633899999999997</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="6">
-        <v>-22.902100000000001</v>
-      </c>
-      <c r="E27" s="6">
-        <v>-43.247700000000002</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>51</v>
+      <c r="J27" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="11">
-        <v>-22.752400000000002</v>
-      </c>
-      <c r="E28" s="11">
-        <v>-47.296999999999997</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>211</v>
+        <v>228</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="11">
-        <v>-22.752400000000002</v>
-      </c>
-      <c r="E29" s="11">
-        <v>-47.296999999999997</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>211</v>
+        <v>229</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="11">
-        <v>-22.752400000000002</v>
-      </c>
-      <c r="E30" s="11">
-        <v>-47.296999999999997</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>211</v>
+        <v>230</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="11">
-        <v>-22.752400000000002</v>
-      </c>
-      <c r="E31" s="11">
-        <v>-47.296999999999997</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>211</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="11">
-        <v>-14.4998</v>
-      </c>
-      <c r="E32" s="11">
-        <v>-48.488399999999999</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>211</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="11">
-        <v>-19.923200000000001</v>
-      </c>
-      <c r="E33" s="11">
-        <v>-43.938800000000001</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>211</v>
+        <v>231</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="11">
-        <v>-19.923200000000001</v>
-      </c>
-      <c r="E34" s="11">
-        <v>-43.938800000000001</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>211</v>
+        <v>232</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="11">
-        <v>-15.796099999999999</v>
-      </c>
-      <c r="E35" s="11">
-        <v>-47.889000000000003</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="11">
-        <v>-15.796099999999999</v>
-      </c>
-      <c r="E36" s="11">
-        <v>-47.889000000000003</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>211</v>
+        <v>234</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="11">
-        <v>-15.796099999999999</v>
-      </c>
-      <c r="E37" s="11">
-        <v>-47.889000000000003</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>211</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="11">
-        <v>-15.796099999999999</v>
-      </c>
-      <c r="E38" s="11">
-        <v>-47.889000000000003</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>211</v>
+        <v>235</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-23.005500000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-45.546500000000002</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-22.902100000000001</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-43.247700000000002</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="6">
+        <v>18</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-22.752400000000002</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-47.296999999999997</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-22.752400000000002</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-47.296999999999997</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="5">
+        <v>-22.752400000000002</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-47.296999999999997</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-22.752400000000002</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-47.296999999999997</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-14.4998</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-48.488399999999999</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1">
+      <c r="A46" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="11">
+      <c r="B46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="5">
+        <v>-19.923200000000001</v>
+      </c>
+      <c r="E46" s="5">
+        <v>-43.938800000000001</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-19.923200000000001</v>
+      </c>
+      <c r="E47" s="5">
+        <v>-43.938800000000001</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="5">
+        <v>-15.796099999999999</v>
+      </c>
+      <c r="E48" s="5">
+        <v>-47.889000000000003</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-15.796099999999999</v>
+      </c>
+      <c r="E49" s="5">
+        <v>-47.889000000000003</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-15.796099999999999</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-47.889000000000003</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-15.796099999999999</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-47.889000000000003</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="5">
         <v>-22.752400000000002</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E52" s="5">
         <v>-47.296999999999997</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="11" t="s">
+      <c r="F52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-22.9039</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-47.0625</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="5">
+        <v>-22.9039</v>
+      </c>
+      <c r="E54" s="5">
+        <v>-47.0625</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-22.910900000000002</v>
+      </c>
+      <c r="E55" s="5">
+        <v>-47.096600000000002</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="11">
-        <v>-22.9039</v>
-      </c>
-      <c r="E40" s="11">
-        <v>-47.0625</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I40" s="11" t="s">
+      <c r="G55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-22.910900000000002</v>
+      </c>
+      <c r="E56" s="5">
+        <v>-47.096600000000002</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="11">
-        <v>-22.9039</v>
-      </c>
-      <c r="E41" s="11">
-        <v>-47.0625</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="11">
-        <v>-22.910900000000002</v>
-      </c>
-      <c r="E42" s="11">
-        <v>-47.096600000000002</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="11">
-        <v>-22.910900000000002</v>
-      </c>
-      <c r="E43" s="11">
-        <v>-47.096600000000002</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="11" t="s">
+      <c r="G56" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="I56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="5">
         <v>-22.8889</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E57" s="5">
         <v>-47.102899999999998</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="11">
+      <c r="F57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="5">
         <v>-25.4253</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E58" s="5">
         <v>-49.278300000000002</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="11">
+      <c r="F58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="5">
         <v>-25.4253</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E59" s="5">
         <v>-49.278300000000002</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="11">
-        <v>-37.519799999999996</v>
-      </c>
-      <c r="E47" s="11">
-        <v>-38.507399999999997</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="11">
-        <v>-16.677600000000002</v>
-      </c>
-      <c r="E48" s="11">
-        <v>-49.258600000000001</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="G59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="11">
-        <v>-9.6576000000000004</v>
-      </c>
-      <c r="E49" s="11">
-        <v>-35.7361</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="11">
-        <v>-5.7884000000000002</v>
-      </c>
-      <c r="E50" s="11">
-        <v>-35.202800000000003</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="11">
-        <v>-30.069299999999998</v>
-      </c>
-      <c r="E51" s="11">
-        <v>-51.2254</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="11">
-        <v>-30.069299999999998</v>
-      </c>
-      <c r="E52" s="11">
-        <v>-51.2254</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="11">
-        <v>-30.069299999999998</v>
-      </c>
-      <c r="E53" s="11">
-        <v>-51.2254</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="11">
-        <v>-8.0510000000000002</v>
-      </c>
-      <c r="E54" s="11">
-        <v>-34.895800000000001</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="11">
-        <v>-8.0510000000000002</v>
-      </c>
-      <c r="E55" s="11">
-        <v>-34.895800000000001</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="11">
-        <v>-21.189800000000002</v>
-      </c>
-      <c r="E56" s="11">
-        <v>-47.769399999999997</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="11">
-        <v>-22.899899999999999</v>
-      </c>
-      <c r="E57" s="11">
-        <v>-43.187199999999997</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="11">
-        <v>-22.900400000000001</v>
-      </c>
-      <c r="E58" s="11">
-        <v>-43.187600000000003</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="11">
-        <v>-22.9026</v>
-      </c>
-      <c r="E59" s="11">
-        <v>-43.185400000000001</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>211</v>
+      <c r="I59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-3.7522500000000001</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-38.508899999999997</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="5">
+        <v>-16.677600000000002</v>
+      </c>
+      <c r="E61" s="5">
+        <v>-49.258600000000001</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="5">
+        <v>-9.6576000000000004</v>
+      </c>
+      <c r="E62" s="5">
+        <v>-35.7361</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="5">
+        <v>-5.7884000000000002</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-35.202800000000003</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1">
+      <c r="A64" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="5">
+        <v>-30.069299999999998</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-51.2254</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="5">
+        <v>-30.069299999999998</v>
+      </c>
+      <c r="E65" s="5">
+        <v>-51.2254</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1">
+      <c r="A66" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="5">
+        <v>-30.069299999999998</v>
+      </c>
+      <c r="E66" s="5">
+        <v>-51.2254</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1">
+      <c r="A67" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="5">
+        <v>-8.0510000000000002</v>
+      </c>
+      <c r="E67" s="5">
+        <v>-34.895800000000001</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="5">
+        <v>-8.0510000000000002</v>
+      </c>
+      <c r="E68" s="5">
+        <v>-34.895800000000001</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1">
+      <c r="A69" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="5">
+        <v>-21.189800000000002</v>
+      </c>
+      <c r="E69" s="5">
+        <v>-47.769399999999997</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1">
+      <c r="A70" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="5">
+        <v>-22.899899999999999</v>
+      </c>
+      <c r="E70" s="5">
+        <v>-43.187199999999997</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="5">
+        <v>-22.900400000000001</v>
+      </c>
+      <c r="E71" s="5">
+        <v>-43.187600000000003</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1">
+      <c r="A72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="5">
+        <v>-22.9026</v>
+      </c>
+      <c r="E72" s="5">
+        <v>-43.185400000000001</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1">
+      <c r="A73" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="5">
+        <v>-22.9026</v>
+      </c>
+      <c r="E73" s="5">
+        <v>-43.185400000000001</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1">
+      <c r="A74" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="5">
+        <v>-22.9026</v>
+      </c>
+      <c r="E74" s="5">
+        <v>-43.185400000000001</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" customHeight="1">
+      <c r="A75" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="5">
+        <v>-22.9026</v>
+      </c>
+      <c r="E75" s="5">
+        <v>-43.185400000000001</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1">
+      <c r="A76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="5">
+        <v>-22.9026</v>
+      </c>
+      <c r="E76" s="5">
+        <v>-43.185400000000001</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1">
+      <c r="A77" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="5">
+        <v>-22.9026</v>
+      </c>
+      <c r="E77" s="5">
+        <v>-43.185400000000001</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1">
+      <c r="A78" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="5">
+        <v>-22.9026</v>
+      </c>
+      <c r="E78" s="5">
+        <v>-43.185400000000001</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1">
+      <c r="A79" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="5">
+        <v>-12.998100000000001</v>
+      </c>
+      <c r="E79" s="5">
+        <v>-38.466500000000003</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" customHeight="1">
+      <c r="A80" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="5">
+        <v>-12.9772</v>
+      </c>
+      <c r="E80" s="5">
+        <v>-38.508000000000003</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1">
+      <c r="A81" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="5">
+        <v>-23.6584</v>
+      </c>
+      <c r="E81" s="5">
+        <v>-46.533000000000001</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15" customHeight="1">
+      <c r="A82" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="5">
+        <v>-23.544899999999998</v>
+      </c>
+      <c r="E82" s="5">
+        <v>-46.5578</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1">
+      <c r="A83" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-23.544899999999998</v>
+      </c>
+      <c r="E83" s="5">
+        <v>-46.5578</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1">
+      <c r="A84" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="5">
+        <v>-23.627300000000002</v>
+      </c>
+      <c r="E84" s="5">
+        <v>-46.698700000000002</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" customHeight="1">
+      <c r="A85" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-22.9026</v>
-      </c>
-      <c r="E60" s="11">
-        <v>-43.185400000000001</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="B85" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="5">
+        <v>-23.627300000000002</v>
+      </c>
+      <c r="E85" s="5">
+        <v>-46.698700000000002</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="9" t="s">
+    </row>
+    <row r="86" spans="1:10" ht="15" customHeight="1">
+      <c r="A86" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="11">
-        <v>-22.9026</v>
-      </c>
-      <c r="E61" s="11">
-        <v>-43.185400000000001</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="9" t="s">
+      <c r="B86" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="5">
+        <v>-23.627300000000002</v>
+      </c>
+      <c r="E86" s="5">
+        <v>-46.698700000000002</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15" customHeight="1">
+      <c r="A87" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="11">
-        <v>-22.9026</v>
-      </c>
-      <c r="E62" s="11">
-        <v>-43.185400000000001</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="9" t="s">
+      <c r="B87" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="5">
+        <v>-23.627300000000002</v>
+      </c>
+      <c r="E87" s="5">
+        <v>-46.698700000000002</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" customHeight="1">
+      <c r="A88" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="11">
-        <v>-22.9026</v>
-      </c>
-      <c r="E63" s="11">
-        <v>-43.185400000000001</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="9" t="s">
+      <c r="B88" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="5">
+        <v>-23.627300000000002</v>
+      </c>
+      <c r="E88" s="5">
+        <v>-46.698700000000002</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15" customHeight="1">
+      <c r="A89" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="11">
-        <v>-22.9026</v>
-      </c>
-      <c r="E64" s="11">
-        <v>-43.185400000000001</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1">
-      <c r="A65" s="9" t="s">
+      <c r="B89" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="5">
+        <v>-23.627300000000002</v>
+      </c>
+      <c r="E89" s="5">
+        <v>-46.698700000000002</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" customHeight="1">
+      <c r="A90" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="11">
-        <v>-22.9026</v>
-      </c>
-      <c r="E65" s="11">
-        <v>-43.185400000000001</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1">
-      <c r="A66" s="9" t="s">
+      <c r="B90" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="5">
+        <v>-23.627300000000002</v>
+      </c>
+      <c r="E90" s="5">
+        <v>-46.698700000000002</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1">
+      <c r="A91" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="11">
-        <v>-12.998100000000001</v>
-      </c>
-      <c r="E66" s="11">
-        <v>-38.466500000000003</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1">
-      <c r="A67" s="9" t="s">
+      <c r="B91" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="5">
+        <v>-23.563300000000002</v>
+      </c>
+      <c r="E91" s="5">
+        <v>-46.646599999999999</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1">
+      <c r="A92" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="11">
-        <v>-12.9772</v>
-      </c>
-      <c r="E67" s="11">
-        <v>-38.508000000000003</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1">
-      <c r="A68" s="9" t="s">
+      <c r="B92" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" s="5">
+        <v>-23.563300000000002</v>
+      </c>
+      <c r="E92" s="5">
+        <v>-46.646599999999999</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" customHeight="1">
+      <c r="A93" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="11">
-        <v>-23.6584</v>
-      </c>
-      <c r="E68" s="11">
-        <v>-46.533000000000001</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1">
-      <c r="A69" s="9" t="s">
+      <c r="B93" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="5">
+        <v>-23.563300000000002</v>
+      </c>
+      <c r="E93" s="5">
+        <v>-46.646599999999999</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" customHeight="1">
+      <c r="A94" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="11">
-        <v>-23.544899999999998</v>
-      </c>
-      <c r="E69" s="11">
-        <v>-46.5578</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1">
-      <c r="A70" s="9" t="s">
+      <c r="B94" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="5">
+        <v>-23.563300000000002</v>
+      </c>
+      <c r="E94" s="5">
+        <v>-46.646599999999999</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" customHeight="1">
+      <c r="A95" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="11">
-        <v>-23.544899999999998</v>
-      </c>
-      <c r="E70" s="11">
-        <v>-46.5578</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1">
-      <c r="A71" s="9" t="s">
+      <c r="B95" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="5">
+        <v>-23.563300000000002</v>
+      </c>
+      <c r="E95" s="5">
+        <v>-46.646599999999999</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1">
+      <c r="A96" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="11">
-        <v>-23.627300000000002</v>
-      </c>
-      <c r="E71" s="11">
-        <v>-46.698700000000002</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="B96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="5">
+        <v>-23.6313</v>
+      </c>
+      <c r="E96" s="5">
+        <v>-46.707999999999998</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" customHeight="1">
+      <c r="A97" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" s="11">
-        <v>-23.627300000000002</v>
-      </c>
-      <c r="E72" s="11">
-        <v>-46.698700000000002</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1">
-      <c r="A73" s="9" t="s">
+      <c r="B97" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="5">
+        <v>-23.6313</v>
+      </c>
+      <c r="E97" s="5">
+        <v>-46.707999999999998</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" customHeight="1">
+      <c r="A98" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="11">
-        <v>-23.627300000000002</v>
-      </c>
-      <c r="E73" s="11">
-        <v>-46.698700000000002</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1">
-      <c r="A74" s="9" t="s">
+      <c r="B98" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="5">
+        <v>-20.321300000000001</v>
+      </c>
+      <c r="E98" s="5">
+        <v>-40.337899999999998</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="11">
-        <v>-23.627300000000002</v>
-      </c>
-      <c r="E74" s="11">
-        <v>-46.698700000000002</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="11">
-        <v>-23.627300000000002</v>
-      </c>
-      <c r="E75" s="11">
-        <v>-46.698700000000002</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" s="11">
-        <v>-23.627300000000002</v>
-      </c>
-      <c r="E76" s="11">
-        <v>-46.698700000000002</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" s="11">
-        <v>-23.627300000000002</v>
-      </c>
-      <c r="E77" s="11">
-        <v>-46.698700000000002</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="11">
-        <v>-23.563300000000002</v>
-      </c>
-      <c r="E78" s="11">
-        <v>-46.646599999999999</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="11">
-        <v>-23.563300000000002</v>
-      </c>
-      <c r="E79" s="11">
-        <v>-46.646599999999999</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="11">
-        <v>-23.563300000000002</v>
-      </c>
-      <c r="E80" s="11">
-        <v>-46.646599999999999</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="11">
-        <v>-23.563300000000002</v>
-      </c>
-      <c r="E81" s="11">
-        <v>-46.646599999999999</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="11">
-        <v>-23.563300000000002</v>
-      </c>
-      <c r="E82" s="11">
-        <v>-46.646599999999999</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" s="11">
-        <v>-23.6313</v>
-      </c>
-      <c r="E83" s="11">
-        <v>-46.707999999999998</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1">
-      <c r="A84" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84" s="11">
-        <v>-23.6313</v>
-      </c>
-      <c r="E84" s="11">
-        <v>-46.707999999999998</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" s="11">
-        <v>-20.321300000000001</v>
-      </c>
-      <c r="E85" s="11">
-        <v>-40.337899999999998</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>211</v>
+      <c r="J98" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{C6B1E72E-1C41-4403-A19C-4C83A376B5C7}"/>
-    <hyperlink ref="J3:J27" r:id="rId2" display="Edmilsn.carvalho@globalhitss.com.br" xr:uid="{DF4C516B-21EB-4B8D-8B75-786EEFBE92E6}"/>
-    <hyperlink ref="J28" r:id="rId3" xr:uid="{87804B5D-0903-4EFD-BFE0-43713AA54D0A}"/>
-    <hyperlink ref="J29:J85" r:id="rId4" display="jean.moura@globalhitss.com.br" xr:uid="{DCC5E2F1-7466-4548-BC5A-784E5DEF3BB3}"/>
+    <hyperlink ref="J41" r:id="rId1" xr:uid="{87804B5D-0903-4EFD-BFE0-43713AA54D0A}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{2471D7B3-CD87-4CC1-8638-53FB1867D859}"/>
+    <hyperlink ref="J3:J40" r:id="rId3" display="rafael.aloia@globalhitss.com.br" xr:uid="{335E41A9-9DF0-4C5B-AE22-EB280ABFA4A5}"/>
+    <hyperlink ref="J60" r:id="rId4" xr:uid="{64BB3EF5-292C-42D8-9BFD-5EAAB566E70C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
